--- a/mbs-perturbation/chatty/multinomialNB/chatty-multinomialNB-results.xlsx
+++ b/mbs-perturbation/chatty/multinomialNB/chatty-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01875</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.533695652173913</v>
+        <v>0.4759615384615384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2584242618741977</v>
+        <v>0.4817518248175182</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5336956521739131</v>
+        <v>0.4759615384615384</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9415584415584415</v>
+        <v>0.8278846153846153</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5598746081504702</v>
+        <v>0.5625124229775392</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9415584415584415</v>
+        <v>0.8278846153846154</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4543478260869565</v>
+        <v>0.8492753623188406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4728506787330317</v>
+        <v>0.605414551607445</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4543478260869565</v>
+        <v>0.8492753623188406</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.075</v>
+        <v>0.0625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9195652173913044</v>
+        <v>0.8188405797101449</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5260322172741767</v>
+        <v>0.448204060385216</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9195652173913044</v>
+        <v>0.8188405797101449</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.7613526570048309</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8989154013015185</v>
+        <v>0.6025</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.761352657004831</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.23875</v>
+        <v>0.09960835913312693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7365000941087898</v>
+        <v>0.7466629505759941</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5432194334666789</v>
+        <v>0.5400765719575438</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7365000941087898</v>
+        <v>0.7466629505759941</v>
       </c>
     </row>
   </sheetData>
